--- a/biology/Botanique/Pacouria/Pacouria.xlsx
+++ b/biology/Botanique/Pacouria/Pacouria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pacouria est un genre de lianes sud-américains, appartenant à la famille des Apocynaceae, et comptant entre 3 et 24 espèces.
 L'espèce type est Pacouria guianensis Aubl..
-Pacouria serait un équivalent néotropical du genre paléotropical Landolphia P. Beauv.[2], mais certains considèrent qu'il en serait un simple synonyme[3].
+Pacouria serait un équivalent néotropical du genre paléotropical Landolphia P. Beauv., mais certains considèrent qu'il en serait un simple synonyme.
 </t>
         </is>
       </c>
@@ -513,16 +525,18 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pacouria regroupe des lianes à axes robustes, souvent terminés en vrille, et produisant un latex blanc.
-Les espèces du genre Pacouria présentent un mécanisme de grimpe relativement peu commun : elles s'accrochent grâce à l'enroulement de leurs pédoncules et de leurs inflorescences[4].
+Les espèces du genre Pacouria présentent un mécanisme de grimpe relativement peu commun : elles s'accrochent grâce à l'enroulement de leurs pédoncules et de leurs inflorescences.
 Les feuilles sont opposées.
 Les inflorescences terminales ou axillaires, sont des panicules de fleurs groupées.
 Les fleur comportent 5 étamines. Les anthères sont détachées du sommet du style.
 L'ovaire est un syncarpe à une seule loge contenant 10-36 ovules disposés sur 2 placentas : la placentation est pariétale.
 Les fruit sont comestibles.
-Les graines contiennent une embryon cordé, et une petite radicule[5].
+Les graines contiennent une embryon cordé, et une petite radicule.
 </t>
         </is>
       </c>
@@ -551,9 +565,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant[6] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant : 
 « Pacouria. (Tabula 105.)
 CAL. Perianthium monophyllum, quinquepartitum ; laciniis ſubrotundis, carnoſis, acutis.
 COR. monopetala, flava ; tubus brevis, receptaculo piſtilli inſertus ; limbus quinquefidus, lobis ſubrotundis, undulatis, mutuò incumbentibus.
@@ -590,21 +606,23 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Flora Online (WFO)       (17 janvier 2022)[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Flora Online (WFO)       (17 janvier 2022) :
 Pacouria boliviensis (Markgr.) A.Chev., 1946
 Pacouria guianensis Aubl., 1775
 Pacouria paraensis (Huber) Pichon, 1948
 Pacouria grisea Pichon, 1948
 Pacouria gudara Buch.-Ham. ex Wall., 1831
-Selon GBIF       (02 février 2024)[8] :
+Selon GBIF       (02 février 2024) :
 Pacouria boliviensis (Markgr.) A.Chev.
 Pacouria grisea Pichon
 Pacouria gudara Buch.-Ham. ex Wall.
 Pacouria guianensis Aubl.
 Pacouria paraensis (Huber) Pichon
-Selon Tropicos                                           (02 février 2024)[9] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (02 février 2024) (Attention liste brute contenant possiblement des synonymes) :
 Pacouria amoena (Hua) Pichon, 1948
 Pacouria angustifolia (K. Schum. ex Engl.) Kuntze, 1903
 Pacouria boliviensis (Markgr.) A. Chev., 1948
